--- a/resultadosConTablas.xlsx
+++ b/resultadosConTablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tarea3EDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04AD9F4-7193-4420-B284-8E17A05051DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10808046-6293-4CE3-94A9-160218858A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5261,7 +5261,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
